--- a/biology/Médecine/Énanthotoxine/Énanthotoxine.xlsx
+++ b/biology/Médecine/Énanthotoxine/Énanthotoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89nanthotoxine</t>
+          <t>Énanthotoxine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'énanthotoxine ((E,E,E)-heptadéca-2,8,10-triène-4,6,diyne-1,14-diol en nomenclature IUPAC) est un composé chimique organique de formule brute C17H22O2. C’est un alcool hautement insaturé très toxique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89nanthotoxine</t>
+          <t>Énanthotoxine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce composé est mortel pour la souris à une dose de 0,83 mg/kg[4]. Il agit comme un antagoniste des récepteurs GABAA des neurones : cette molécule fixe l’acide γ-aminobutyrique (GABA) ouvrant ces récepteurs, les rendant perméables aux ions chlorures qui en s'engouffrant les hyperpolarisent[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce composé est mortel pour la souris à une dose de 0,83 mg/kg. Il agit comme un antagoniste des récepteurs GABAA des neurones : cette molécule fixe l’acide γ-aminobutyrique (GABA) ouvrant ces récepteurs, les rendant perméables aux ions chlorures qui en s'engouffrant les hyperpolarisent.
 Il est responsable de la toxicité de la œnanthe safranée.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89nanthotoxine</t>
+          <t>Énanthotoxine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Similarité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cicutoxine (en) partage la même formule C17H22O2. Très toxique, elle agit de la même manière sur les récepteurs GABAA.
-Elle est responsable de la toxicité de la ciguë aquatique[4].
+Elle est responsable de la toxicité de la ciguë aquatique.
 </t>
         </is>
       </c>
